--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC5_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2903995772013246</v>
+        <v>0.3128354746372221</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2903995772013246, 'ngram_match_score': 0.11526513759342034, 'weighted_ngram_match_score': 0.21936588562390275, 'syntax_match_score': 0.45517241379310347, 'dataflow_match_score': 0.3717948717948718}</t>
+          <t>{'codebleu': 0.31283547463722206, 'ngram_match_score': 0.11526513759342034, 'weighted_ngram_match_score': 0.21936588562390275, 'syntax_match_score': 0.45517241379310347, 'dataflow_match_score': 0.46153846153846156}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
